--- a/Data/Transitions/19161919Translation.xlsx
+++ b/Data/Transitions/19161919Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="573">
   <si>
     <t>id</t>
   </si>
@@ -166,7 +166,7 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286}</t>
+    <t>{764.0: 0.1490527567751253}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -184,7 +184,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.832372267667963}</t>
+    <t>{86.0: 0.8323610272916248}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -241,7 +241,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 86.0: 0.167627732332037}</t>
+    <t>{107.0: 1.0, 86.0: 0.16763897270837524}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -262,10 +262,10 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.731822893528802}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9651930696915546}</t>
+    <t>{142.0: 0.7317831753554502}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9651714219077976}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -274,7 +274,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 1.0, 764.0: 0.02364448224537529}</t>
+    <t>{147.0: 1.0, 764.0: 0.023617364709880215}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -466,6 +466,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -484,7 +487,7 @@
     <t>{249.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
   </si>
   <si>
     <t>{251.0: 1.0}</t>
@@ -631,7 +634,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.34956759217114247}</t>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.34958350402840366}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -670,9 +673,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -682,7 +682,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -982,7 +982,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715}</t>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1072,7 +1072,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1147,7 +1147,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1510,7 +1510,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.9829448214812629}</t>
+    <t>{897.0: 0.9831299982487888}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1519,7 +1519,7 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.6504324078288576}</t>
+    <t>{909.0: 0.6504164959715963}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1687,21 +1687,24 @@
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9583988028432473, 764.0: 0.04160119715675272}</t>
+    <t>{147.0: 0.9583988028432472, 764.0: 0.041601197156752714}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.9502995340581317, 144.0: 0.0497004659418682}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.32047425234471777, 909.0: 0.6795257476552823}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.9681191395477109, 897.0: 0.03188086045228902}</t>
+  </si>
+  <si>
+    <t>{486.0: 1.0}</t>
   </si>
   <si>
     <t>{581.0: 0.9502995340581318, 144.0: 0.0497004659418682}</t>
   </si>
   <si>
-    <t>{142.0: 0.32047425234471777, 909.0: 0.6795257476552823}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.9681191395477109, 897.0: 0.03188086045228902}</t>
-  </si>
-  <si>
-    <t>{486.0: 1.0}</t>
-  </si>
-  <si>
     <t>{758.0: 1.0}</t>
   </si>
   <si>
@@ -1723,7 +1726,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9647887323943662, 486.0: 0.035211267605633804}</t>
+    <t>{837.0: 0.9647887323943664, 486.0: 0.035211267605633804}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
@@ -3723,7 +3726,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3734,7 +3737,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3745,7 +3748,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3767,7 +3770,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3789,29 +3792,29 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>558</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>157</v>
+        <v>558</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3822,7 +3825,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3833,7 +3836,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3844,7 +3847,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3855,7 +3858,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3866,7 +3869,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3877,7 +3880,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3888,7 +3891,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3899,7 +3902,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3910,7 +3913,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3921,7 +3924,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3932,7 +3935,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3954,7 +3957,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3965,7 +3968,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -3976,7 +3979,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -3987,7 +3990,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -3998,7 +4001,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4009,7 +4012,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4020,7 +4023,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4031,7 +4034,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4042,7 +4045,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4053,7 +4056,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4064,7 +4067,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4075,7 +4078,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4086,7 +4089,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4097,7 +4100,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4108,7 +4111,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4130,7 +4133,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4141,7 +4144,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4152,7 +4155,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4163,7 +4166,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4174,7 +4177,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4185,7 +4188,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4196,7 +4199,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4207,7 +4210,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4218,7 +4221,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4229,7 +4232,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4240,7 +4243,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4251,7 +4254,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4262,7 +4265,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4273,7 +4276,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4284,7 +4287,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4295,7 +4298,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4306,7 +4309,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4317,7 +4320,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4328,29 +4331,29 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>559</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>206</v>
+        <v>559</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4361,7 +4364,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4372,7 +4375,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4383,7 +4386,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4394,7 +4397,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4405,7 +4408,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4416,7 +4419,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4427,7 +4430,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4438,7 +4441,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4449,7 +4452,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4460,7 +4463,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4471,7 +4474,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -5621,7 +5624,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5643,7 +5646,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5951,7 +5954,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6160,7 +6163,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6226,7 +6229,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6369,7 +6372,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6600,7 +6603,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6611,7 +6614,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6688,7 +6691,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6754,7 +6757,7 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7139,7 +7142,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7557,7 +7560,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7590,7 +7593,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="501" spans="1:3">
